--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:25:29+00:00</t>
+    <t>2022-04-14T19:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:48:55+00:00</t>
+    <t>2022-04-14T20:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:08:42+00:00</t>
+    <t>2022-04-14T20:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:27:58+00:00</t>
+    <t>2022-04-14T20:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:44:08+00:00</t>
+    <t>2022-04-15T12:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:45:47+00:00</t>
+    <t>2022-04-15T14:01:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:01:58+00:00</t>
+    <t>2022-04-15T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:27:29+00:00</t>
+    <t>2022-04-15T14:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:45:08+00:00</t>
+    <t>2022-04-15T14:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:52:59+00:00</t>
+    <t>2022-04-15T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:34:51+00:00</t>
+    <t>2022-04-15T15:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="145">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:54:30+00:00</t>
+    <t>2022-04-15T17:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,17 +425,11 @@
     <t>maxValueLabel</t>
   </si>
   <si>
-    <t>scale</t>
+    <t>maxLength</t>
   </si>
   <si>
     <t xml:space="preserve">integer
 </t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>maxLength</t>
   </si>
   <si>
     <t>subType</t>
@@ -448,6 +442,9 @@
   </si>
   <si>
     <t>fieldCode</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
   <si>
     <t>completionPeriodOfTime</t>
@@ -767,7 +764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ145"/>
+  <dimension ref="A1:AJ140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9222,7 +9219,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>97</v>
@@ -10230,7 +10227,7 @@
         <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>97</v>
@@ -10629,7 +10626,7 @@
         <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>108</v>
@@ -10709,7 +10706,7 @@
         <v>85</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>73</v>
@@ -11048,7 +11045,7 @@
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>73</v>
@@ -11213,7 +11210,7 @@
         <v>85</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>73</v>
@@ -11238,7 +11235,7 @@
         <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>97</v>
@@ -11552,7 +11549,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>73</v>
@@ -11717,7 +11714,7 @@
         <v>85</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>73</v>
@@ -12056,7 +12053,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>73</v>
@@ -12141,7 +12138,7 @@
         <v>73</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>108</v>
@@ -12221,7 +12218,7 @@
         <v>85</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>73</v>
@@ -12246,7 +12243,7 @@
         <v>87</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>97</v>
@@ -12560,7 +12557,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>73</v>
@@ -13149,7 +13146,7 @@
         <v>73</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>108</v>
@@ -14661,7 +14658,7 @@
         <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>108</v>
@@ -14738,17 +14735,15 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>79</v>
@@ -14763,22 +14758,24 @@
         <v>73</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R139" t="s" s="2">
         <v>73</v>
@@ -14820,27 +14817,27 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -14851,7 +14848,7 @@
         <v>74</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>73</v>
@@ -14863,13 +14860,13 @@
         <v>73</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -14920,7 +14917,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -14932,513 +14929,9 @@
         <v>73</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:11:07+00:00</t>
+    <t>2022-04-15T17:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:46:09+00:00</t>
+    <t>2022-04-15T19:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:11:05+00:00</t>
+    <t>2022-04-15T19:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:26:54+00:00</t>
+    <t>2022-04-18T13:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:39:40+00:00</t>
+    <t>2022-04-18T13:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:50:56+00:00</t>
+    <t>2022-04-18T13:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:55:40+00:00</t>
+    <t>2022-04-18T14:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:09:42+00:00</t>
+    <t>2022-04-18T14:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:34:01+00:00</t>
+    <t>2022-04-18T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:36:39+00:00</t>
+    <t>2022-04-18T14:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:49:47+00:00</t>
+    <t>2022-04-18T14:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:59:18+00:00</t>
+    <t>2022-04-19T16:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/datetime-item</t>
+    <t>http://science37.com/fhir/StructureDefinition/datetime-item</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/item-settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/item-settings</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:57:06+00:00</t>
+    <t>2022-04-19T19:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:13:12+00:00</t>
+    <t>2022-04-19T19:15:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:15:24+00:00</t>
+    <t>2022-04-19T19:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:24:07+00:00</t>
+    <t>2022-04-19T19:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:32:38+00:00</t>
+    <t>2022-04-19T20:00:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:00:50+00:00</t>
+    <t>2022-04-19T20:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datetime-item.xlsx
+++ b/StructureDefinition-datetime-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:15:26+00:00</t>
+    <t>2022-04-21T13:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
